--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H2">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I2">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J2">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>9.551963228174142</v>
+        <v>0.1124142889833333</v>
       </c>
       <c r="R2">
-        <v>9.551963228174142</v>
+        <v>1.01172860085</v>
       </c>
       <c r="S2">
-        <v>0.003324990946645282</v>
+        <v>3.515472492750993E-05</v>
       </c>
       <c r="T2">
-        <v>0.003324990946645282</v>
+        <v>3.91616139767893E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H3">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I3">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J3">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>314.1786153723657</v>
+        <v>3.433455178927777</v>
       </c>
       <c r="R3">
-        <v>314.1786153723657</v>
+        <v>30.90109661035</v>
       </c>
       <c r="S3">
-        <v>0.1093640152069921</v>
+        <v>0.00107372624474844</v>
       </c>
       <c r="T3">
-        <v>0.1093640152069921</v>
+        <v>0.001196108141943706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H4">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I4">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J4">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>144.9653626909275</v>
+        <v>0.00225540655</v>
       </c>
       <c r="R4">
-        <v>144.9653626909275</v>
+        <v>0.02029865895</v>
       </c>
       <c r="S4">
-        <v>0.0504617225810468</v>
+        <v>7.05321339324661E-07</v>
       </c>
       <c r="T4">
-        <v>0.0504617225810468</v>
+        <v>7.857129326763553E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>19.2878504729269</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H5">
-        <v>19.2878504729269</v>
+        <v>0.223175</v>
       </c>
       <c r="I5">
-        <v>0.4278380933544037</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J5">
-        <v>0.4278380933544037</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>25.04857788272085</v>
+        <v>1.466231443970833</v>
       </c>
       <c r="R5">
-        <v>25.04857788272085</v>
+        <v>8.797388663825</v>
       </c>
       <c r="S5">
-        <v>0.008719285522449216</v>
+        <v>0.0004585267901352153</v>
       </c>
       <c r="T5">
-        <v>0.008719285522449216</v>
+        <v>0.0003405260447980316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H6">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I6">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J6">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>823.8858680933596</v>
+        <v>12.08387948667533</v>
       </c>
       <c r="R6">
-        <v>823.8858680933596</v>
+        <v>108.754915380078</v>
       </c>
       <c r="S6">
-        <v>0.2867905777106984</v>
+        <v>0.00377892760122544</v>
       </c>
       <c r="T6">
-        <v>0.2867905777106984</v>
+        <v>0.00420964477095419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H7">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J7">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>380.1497232474872</v>
+        <v>369.0763779257264</v>
       </c>
       <c r="R7">
-        <v>380.1497232474872</v>
+        <v>3321.687401331538</v>
       </c>
       <c r="S7">
-        <v>0.1323282301212561</v>
+        <v>0.1154192999890278</v>
       </c>
       <c r="T7">
-        <v>0.1323282301212561</v>
+        <v>0.1285746391405972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.9867924768969</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H8">
-        <v>17.9867924768969</v>
+        <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.3989783625541106</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J8">
-        <v>0.3989783625541106</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>23.3589312012911</v>
+        <v>0.242443030954</v>
       </c>
       <c r="R8">
-        <v>23.3589312012911</v>
+        <v>2.181987278586</v>
       </c>
       <c r="S8">
-        <v>0.008131127906618752</v>
+        <v>7.581792440143688E-05</v>
       </c>
       <c r="T8">
-        <v>0.008131127906618752</v>
+        <v>8.445955114292444E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.9867924768969</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H9">
-        <v>17.9867924768969</v>
+        <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.3989783625541106</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J9">
-        <v>0.3989783625541106</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>768.3108159120098</v>
+        <v>157.6113163971918</v>
       </c>
       <c r="R9">
-        <v>768.3108159120098</v>
+        <v>945.6678983831512</v>
       </c>
       <c r="S9">
-        <v>0.2674451781369975</v>
+        <v>0.04928895181846053</v>
       </c>
       <c r="T9">
-        <v>0.2674451781369975</v>
+        <v>0.0366045609026064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H10">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I10">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J10">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.7092840273248</v>
+        <v>1.511114</v>
       </c>
       <c r="N10">
-        <v>19.7092840273248</v>
+        <v>4.533342</v>
       </c>
       <c r="O10">
-        <v>0.309295109941603</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P10">
-        <v>0.309295109941603</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q10">
-        <v>354.5068016677099</v>
+        <v>30.84957313997533</v>
       </c>
       <c r="R10">
-        <v>354.5068016677099</v>
+        <v>277.646158259778</v>
       </c>
       <c r="S10">
-        <v>0.1234020565104944</v>
+        <v>0.009647423540860735</v>
       </c>
       <c r="T10">
-        <v>0.1234020565104944</v>
+        <v>0.01074702411572926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.45230063762502</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H11">
-        <v>0.45230063762502</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I11">
-        <v>0.01003281535680137</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J11">
-        <v>0.01003281535680137</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29867130180628</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N11">
-        <v>1.29867130180628</v>
+        <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.02037987186715166</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P11">
-        <v>0.02037987186715166</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q11">
-        <v>0.5873898578722953</v>
+        <v>942.234547076693</v>
       </c>
       <c r="R11">
-        <v>0.5873898578722953</v>
+        <v>8480.110923690236</v>
       </c>
       <c r="S11">
-        <v>0.0002044674914384034</v>
+        <v>0.2946600171495017</v>
       </c>
       <c r="T11">
-        <v>0.0002044674914384034</v>
+        <v>0.3282449761674257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.45230063762502</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H12">
-        <v>0.45230063762502</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I12">
-        <v>0.01003281535680137</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J12">
-        <v>0.01003281535680137</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>42.7152766063691</v>
+        <v>0.030318</v>
       </c>
       <c r="N12">
-        <v>42.7152766063691</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O12">
-        <v>0.6703250181912453</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P12">
-        <v>0.6703250181912453</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q12">
-        <v>19.32014684538984</v>
+        <v>0.618945598054</v>
       </c>
       <c r="R12">
-        <v>19.32014684538984</v>
+        <v>5.570510382485999</v>
       </c>
       <c r="S12">
-        <v>0.006725247136557286</v>
+        <v>0.0001935595771806864</v>
       </c>
       <c r="T12">
-        <v>0.006725247136557286</v>
+        <v>0.0002156212417730759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20.41511966666667</v>
+      </c>
+      <c r="H13">
+        <v>61.24535899999999</v>
+      </c>
+      <c r="I13">
+        <v>0.4303333644344477</v>
+      </c>
+      <c r="J13">
+        <v>0.43265733525857</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.7096195</v>
+      </c>
+      <c r="N13">
+        <v>39.419239</v>
+      </c>
+      <c r="O13">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P13">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q13">
+        <v>402.3742406769668</v>
+      </c>
+      <c r="R13">
+        <v>2414.245444061801</v>
+      </c>
+      <c r="S13">
+        <v>0.1258323641669045</v>
+      </c>
+      <c r="T13">
+        <v>0.09344971373364189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H14">
+        <v>54.568808</v>
+      </c>
+      <c r="I14">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J14">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.511114</v>
+      </c>
+      <c r="N14">
+        <v>4.533342</v>
+      </c>
+      <c r="O14">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P14">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q14">
+        <v>27.48656324403734</v>
+      </c>
+      <c r="R14">
+        <v>247.379069196336</v>
+      </c>
+      <c r="S14">
+        <v>0.008595727276182833</v>
+      </c>
+      <c r="T14">
+        <v>0.009575456901846231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H15">
+        <v>54.568808</v>
+      </c>
+      <c r="I15">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J15">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N15">
+        <v>138.461282</v>
+      </c>
+      <c r="O15">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P15">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q15">
+        <v>839.5185680990952</v>
+      </c>
+      <c r="R15">
+        <v>7555.667112891856</v>
+      </c>
+      <c r="S15">
+        <v>0.2625381933202134</v>
+      </c>
+      <c r="T15">
+        <v>0.2924619493445182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H16">
+        <v>54.568808</v>
+      </c>
+      <c r="I16">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J16">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>0.5514723736480001</v>
+      </c>
+      <c r="R16">
+        <v>4.963251362832</v>
+      </c>
+      <c r="S16">
+        <v>0.0001724590332425688</v>
+      </c>
+      <c r="T16">
+        <v>0.000192115685745863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H17">
+        <v>54.568808</v>
+      </c>
+      <c r="I17">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J17">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>358.5101474161854</v>
+      </c>
+      <c r="R17">
+        <v>2151.060884497113</v>
+      </c>
+      <c r="S17">
+        <v>0.1121149787106301</v>
+      </c>
+      <c r="T17">
+        <v>0.08326246379560072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.52892</v>
+      </c>
+      <c r="I18">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J18">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>1.15518620844</v>
+      </c>
+      <c r="R18">
+        <v>6.93111725064</v>
+      </c>
+      <c r="S18">
+        <v>0.0003612552618091306</v>
+      </c>
+      <c r="T18">
+        <v>0.0002682871058200636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.52892</v>
+      </c>
+      <c r="I19">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J19">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>35.28270387924</v>
+      </c>
+      <c r="R19">
+        <v>211.69622327544</v>
+      </c>
+      <c r="S19">
+        <v>0.01103377302646433</v>
+      </c>
+      <c r="T19">
+        <v>0.008194258588016449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="H13">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="I13">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="J13">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N13">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O13">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P13">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q13">
-        <v>8.914521732691629</v>
-      </c>
-      <c r="R13">
-        <v>8.914521732691629</v>
-      </c>
-      <c r="S13">
-        <v>0.003103100728805684</v>
-      </c>
-      <c r="T13">
-        <v>0.003103100728805684</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.52892</v>
+      </c>
+      <c r="I20">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J20">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.02317689828</v>
+      </c>
+      <c r="R20">
+        <v>0.13906138968</v>
+      </c>
+      <c r="S20">
+        <v>7.247988588239682E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.382736493906276E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.52892</v>
+      </c>
+      <c r="I21">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J21">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>15.06721572297</v>
+      </c>
+      <c r="R21">
+        <v>60.26886289188</v>
+      </c>
+      <c r="S21">
+        <v>0.004711890534156156</v>
+      </c>
+      <c r="T21">
+        <v>0.002332864704436458</v>
       </c>
     </row>
   </sheetData>
